--- a/Livrable 1/Echeancier.xlsx
+++ b/Livrable 1/Echeancier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294af2d56046085e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE460F47-DC43-024D-9EFC-0A04F6E33C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{EE460F47-DC43-024D-9EFC-0A04F6E33C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5729C24F-3907-4328-8F6D-333AD7669B55}"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="0" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>IFT 2255 TP1: Groupe 18</t>
   </si>
@@ -87,6 +88,18 @@
   </si>
   <si>
     <t>Organisation du projet</t>
+  </si>
+  <si>
+    <t>Écriture du prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karim, Mathias </t>
+  </si>
+  <si>
+    <t>Exigences du client</t>
+  </si>
+  <si>
+    <t>Mathias, Dean</t>
   </si>
   <si>
     <t>Planning and design</t>
@@ -210,13 +223,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,7 +459,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +795,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -785,10 +804,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFill="0">
@@ -798,7 +817,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,13 +889,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,10 +923,10 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +944,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +959,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,10 +974,10 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
@@ -970,7 +989,7 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -982,10 +1001,10 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1000,7 +1019,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1012,10 +1031,10 @@
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,7 +1049,7 @@
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
@@ -1042,7 +1061,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1054,10 +1073,10 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,6 +1112,27 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1105,88 +1145,54 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Milliers" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1223,6 +1229,243 @@
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1364,15 +1607,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="lastColumn" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1727,26 +1970,26 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL33"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CC1" sqref="CC1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+    <col min="9" max="65" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="90" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="105" t="s">
         <v>0</v>
@@ -1756,60 +1999,60 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="114">
+      <c r="Q1" s="111">
         <f ca="1">TODAY()-17</f>
         <v>45554</v>
       </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="112">
+      <c r="Q2" s="110">
         <v>1</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-    </row>
-    <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="25" t="s">
         <v>3</v>
@@ -1817,106 +2060,106 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="I4" s="119">
+      <c r="I4" s="108">
         <f ca="1">I5</f>
         <v>45551</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117">
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106">
         <f ca="1">P5</f>
         <v>45558</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106">
         <f ca="1">W5</f>
         <v>45565</v>
       </c>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117">
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106">
         <f ca="1">AD5</f>
         <v>45572</v>
       </c>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106">
         <f ca="1">AK5</f>
         <v>45579</v>
       </c>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106">
         <f ca="1">AR5</f>
         <v>45586</v>
       </c>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="117">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106">
         <f ca="1">AY5</f>
         <v>45593</v>
       </c>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="117"/>
-      <c r="BC4" s="117"/>
-      <c r="BD4" s="117"/>
-      <c r="BE4" s="117"/>
-      <c r="BF4" s="117">
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106">
         <f ca="1">BF5</f>
         <v>45600</v>
       </c>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="117"/>
-      <c r="BI4" s="117"/>
-      <c r="BJ4" s="117"/>
-      <c r="BK4" s="117"/>
-      <c r="BL4" s="118"/>
-    </row>
-    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107" t="s">
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
+    </row>
+    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="113"/>
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="109" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="31">
@@ -2144,239 +2387,239 @@
         <v>45606</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="J6" s="35" t="str">
         <f ca="1">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="K6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="L6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="M6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="N6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="O6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="P6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="Q6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="R6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="S6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="T6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="U6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="V6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="W6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="X6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="Y6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="Z6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AA6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="AB6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AC6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AD6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="AE6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AF6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="AG6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AH6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="AI6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AJ6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AK6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="AL6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AM6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="AN6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AO6" s="35" t="str">
         <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="AP6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AQ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AR6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="AS6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AT6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="AU6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="AV6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="AW6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AX6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AY6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="AZ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="BA6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="BB6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="BC6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="BD6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="BE6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="BF6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>d</v>
       </c>
       <c r="BG6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="BH6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>d</v>
       </c>
       <c r="BI6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>d</v>
       </c>
       <c r="BJ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>d</v>
       </c>
       <c r="BK6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="BL6" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>d</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2629,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="H7" s="26" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="39"/>
@@ -2446,7 +2689,7 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="14"/>
       <c r="B8" s="40" t="s">
         <v>10</v>
@@ -2457,7 +2700,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H30" ca="1" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2517,7 +2760,7 @@
       <c r="BK8" s="45"/>
       <c r="BL8" s="45"/>
     </row>
-    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
         <v>11</v>
@@ -2560,8 +2803,8 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
       <c r="AD9" s="51"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="51"/>
@@ -2598,7 +2841,7 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="52" t="s">
         <v>13</v>
@@ -2679,44 +2922,106 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="C11" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="121">
+        <v>1</v>
+      </c>
+      <c r="E11" s="122">
+        <v>45567</v>
+      </c>
+      <c r="F11" s="123">
+        <v>45572</v>
+      </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="51"/>
+      <c r="BB11" s="51"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+    </row>
+    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="65" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="65" t="e">
-        <f>E12+4</f>
-        <v>#REF!</v>
+      <c r="C12" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="121">
+        <v>1</v>
+      </c>
+      <c r="E12" s="122">
+        <v>45562</v>
+      </c>
+      <c r="F12" s="123">
+        <v>45568</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="H12" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2729,7 +3034,7 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
+      <c r="T12" s="117"/>
       <c r="U12" s="51"/>
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
@@ -2775,29 +3080,19 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="13"/>
-      <c r="B13" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="65" t="e">
-        <f>E12+2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="65" t="e">
-        <f>E13+5</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="H13" s="5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2856,7 +3151,7 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="62" t="s">
         <v>19</v>
@@ -2868,16 +3163,16 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="65" t="e">
-        <f>F13</f>
+        <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
       <c r="F14" s="65" t="e">
-        <f>E14+3</f>
+        <f>E14+4</f>
         <v>#REF!</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="I14" s="51"/>
@@ -2937,7 +3232,7 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="62" t="s">
         <v>21</v>
@@ -2945,18 +3240,20 @@
       <c r="C15" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="64">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="65" t="e">
-        <f>E14</f>
+        <f>E14+2</f>
         <v>#REF!</v>
       </c>
       <c r="F15" s="65" t="e">
-        <f>E15+2</f>
+        <f>E15+5</f>
         <v>#REF!</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="I15" s="51"/>
@@ -3016,7 +3313,7 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="62" t="s">
         <v>23</v>
@@ -3024,9 +3321,11 @@
       <c r="C16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="64">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="65" t="e">
-        <f>E15</f>
+        <f>F15</f>
         <v>#REF!</v>
       </c>
       <c r="F16" s="65" t="e">
@@ -3035,7 +3334,7 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="I16" s="51"/>
@@ -3095,19 +3394,27 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="C17" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65" t="e">
+        <f>E16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="65" t="e">
+        <f>E17+2</f>
+        <v>#REF!</v>
+      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H17" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
       </c>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
@@ -3166,29 +3473,27 @@
       <c r="BK17" s="71"/>
       <c r="BL17" s="71"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="75">
-        <f ca="1">E9+15</f>
-        <v>45569</v>
-      </c>
-      <c r="F18" s="75">
-        <f ca="1">E18+5</f>
-        <v>45574</v>
+      <c r="B18" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65" t="e">
+        <f>E17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="65" t="e">
+        <f>E18+3</f>
+        <v>#REF!</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="5">
+      <c r="H18" s="5" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>#REF!</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3247,29 +3552,19 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="13"/>
-      <c r="B19" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="75">
-        <f ca="1">F18+1</f>
-        <v>45575</v>
-      </c>
-      <c r="F19" s="75">
-        <f ca="1">E19+4</f>
-        <v>45579</v>
-      </c>
+      <c r="B19" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="5">
+      <c r="H19" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
@@ -3328,10 +3623,10 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="73" t="s">
         <v>20</v>
@@ -3340,12 +3635,12 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="75">
-        <f ca="1">E19+5</f>
-        <v>45580</v>
+        <f ca="1">E9+15</f>
+        <v>45569</v>
       </c>
       <c r="F20" s="75">
         <f ca="1">E20+5</f>
-        <v>45585</v>
+        <v>45574</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
@@ -3409,24 +3704,24 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="74">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="E21" s="75">
         <f ca="1">F20+1</f>
-        <v>45586</v>
+        <v>45575</v>
       </c>
       <c r="F21" s="75">
         <f ca="1">E21+4</f>
-        <v>45590</v>
+        <v>45579</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
@@ -3490,29 +3785,29 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="75">
-        <f ca="1">E20</f>
+        <f ca="1">E21+5</f>
         <v>45580</v>
       </c>
       <c r="F22" s="75">
-        <f ca="1">E22+4</f>
-        <v>45584</v>
+        <f ca="1">E22+5</f>
+        <v>45585</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -3571,19 +3866,29 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="B23" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="75">
+        <f ca="1">F22+1</f>
+        <v>45586</v>
+      </c>
+      <c r="F23" s="75">
+        <f ca="1">E23+4</f>
+        <v>45590</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H23" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -3642,29 +3947,29 @@
       <c r="BK23" s="81"/>
       <c r="BL23" s="81"/>
     </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="84">
+      <c r="B24" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="74">
         <v>0.25</v>
       </c>
-      <c r="E24" s="85">
-        <f ca="1">E18+2</f>
-        <v>45571</v>
-      </c>
-      <c r="F24" s="85">
-        <f ca="1">E24+3</f>
-        <v>45574</v>
+      <c r="E24" s="75">
+        <f ca="1">E22</f>
+        <v>45580</v>
+      </c>
+      <c r="F24" s="75">
+        <f ca="1">E24+4</f>
+        <v>45584</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
@@ -3723,29 +4028,19 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="85">
-        <f ca="1">F24</f>
-        <v>45574</v>
-      </c>
-      <c r="F25" s="85">
-        <f ca="1">E25+4</f>
-        <v>45578</v>
-      </c>
+      <c r="B25" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="5">
+      <c r="H25" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -3804,24 +4099,24 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E26" s="85">
-        <f ca="1">F25+1</f>
-        <v>45579</v>
+        <f ca="1">E20+2</f>
+        <v>45571</v>
       </c>
       <c r="F26" s="85">
         <f ca="1">E26+3</f>
-        <v>45582</v>
+        <v>45574</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5">
@@ -3885,29 +4180,29 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="83" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="84">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="85">
-        <f ca="1">E24+5</f>
-        <v>45576</v>
+        <f ca="1">F26</f>
+        <v>45574</v>
       </c>
       <c r="F27" s="85">
-        <f ca="1">E27+3</f>
-        <v>45579</v>
+        <f ca="1">E27+4</f>
+        <v>45578</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
@@ -3966,10 +4261,10 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>24</v>
@@ -3978,17 +4273,17 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="85">
-        <f ca="1">E24+7</f>
-        <v>45578</v>
+        <f ca="1">F27+1</f>
+        <v>45579</v>
       </c>
       <c r="F28" s="85">
-        <f ca="1">E28+5</f>
-        <v>45583</v>
+        <f ca="1">E28+3</f>
+        <v>45582</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -4047,17 +4342,29 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="B29" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="85">
+        <f ca="1">E26+5</f>
+        <v>45576</v>
+      </c>
+      <c r="F29" s="85">
+        <f ca="1">E29+3</f>
+        <v>45579</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H29" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -4116,19 +4423,29 @@
       <c r="BK29" s="45"/>
       <c r="BL29" s="45"/>
     </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94"/>
+      <c r="B30" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="85">
+        <f ca="1">E26+7</f>
+        <v>45578</v>
+      </c>
+      <c r="F30" s="85">
+        <f ca="1">E30+5</f>
+        <v>45583</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H30" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -4187,18 +4504,42 @@
       <c r="BK30" s="95"/>
       <c r="BL30" s="95"/>
     </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:64" ht="30" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="16"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="4"/>
+    <row r="32" spans="1:64" ht="30" customHeight="1">
+      <c r="B32" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+    </row>
+    <row r="34" spans="3:6" ht="30" customHeight="1">
+      <c r="C34" s="16"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="3:6" ht="30" customHeight="1">
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4207,19 +4548,9 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D30">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="D7:D32">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4233,40 +4564,104 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL28">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL10">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="20">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL28">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="17" priority="52">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:T14">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:P11">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:X11">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:AF11">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11:AN11">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO11:AV11">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW11:BD11">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE11:BL11">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=BE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BE$5,task_start&lt;BF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -4293,7 +4688,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F15 F19:F20 E20 F25" formula="1"/>
+    <ignoredError sqref="F17 F21:F22 E22 F27" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4311,7 +4706,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D30</xm:sqref>
+          <xm:sqref>D7:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4325,110 +4720,110 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.95">
       <c r="A2" s="98" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="99"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="30.95">
       <c r="A4" s="100" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.25" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="100" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.35" customHeight="1">
       <c r="A7" s="102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="30.95">
       <c r="A8" s="100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.35" customHeight="1">
       <c r="A10" s="103" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="30.95">
       <c r="A11" s="100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.35" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="30.95">
       <c r="A14" s="100" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="75">
       <c r="A16" s="101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="104"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="104"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="104"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="104"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="104"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="104"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="104"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="104"/>
     </row>
   </sheetData>
@@ -4444,6 +4839,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4755,74 +5179,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Livrable 1/Echeancier.xlsx
+++ b/Livrable 1/Echeancier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294af2d56046085e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimhozaien/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{EE460F47-DC43-024D-9EFC-0A04F6E33C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5729C24F-3907-4328-8F6D-333AD7669B55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4821C-2904-0F4C-AF0D-E04F34004F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>IFT 2255 TP1: Groupe 18</t>
   </si>
@@ -78,9 +77,6 @@
     <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
   </si>
   <si>
-    <t>Preparation</t>
-  </si>
-  <si>
     <t>Definition des taches</t>
   </si>
   <si>
@@ -100,72 +96,6 @@
   </si>
   <si>
     <t>Mathias, Dean</t>
-  </si>
-  <si>
-    <t>Planning and design</t>
-  </si>
-  <si>
-    <t>Create schedule</t>
-  </si>
-  <si>
-    <t>Gokce Aslan</t>
-  </si>
-  <si>
-    <t>Identify deliverables</t>
-  </si>
-  <si>
-    <t>Hayden Cook</t>
-  </si>
-  <si>
-    <t>Develop budget</t>
-  </si>
-  <si>
-    <t>Jens Martensson</t>
-  </si>
-  <si>
-    <t>Define scope</t>
-  </si>
-  <si>
-    <t>Nuria Acevedo</t>
-  </si>
-  <si>
-    <t>Identify risks</t>
-  </si>
-  <si>
-    <t>Olivia Wilson</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Execute tasks</t>
-  </si>
-  <si>
-    <t>Monitor progress</t>
-  </si>
-  <si>
-    <t>Manage resources</t>
-  </si>
-  <si>
-    <t>Provide updates</t>
-  </si>
-  <si>
-    <t>Testing and validation</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Track expenses</t>
-  </si>
-  <si>
-    <t>Evaluate progress</t>
-  </si>
-  <si>
-    <t>Address risks</t>
-  </si>
-  <si>
-    <t>Gather feedback</t>
   </si>
   <si>
     <t>Insert new rows ABOVE this one</t>
@@ -217,19 +147,31 @@
   <si>
     <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
   </si>
+  <si>
+    <t>Livrable 1</t>
+  </si>
+  <si>
+    <t>Livrable 2</t>
+  </si>
+  <si>
+    <t>Livrable 3</t>
+  </si>
+  <si>
+    <t>Diagramme de Cas d'utilisation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,7 +401,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +743,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -804,10 +752,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFill="0">
@@ -817,7 +765,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -889,13 +837,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,10 +871,10 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,7 +892,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,7 +907,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,10 +922,10 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
@@ -989,7 +937,7 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,10 +949,10 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,7 +967,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1031,10 +979,10 @@
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,7 +997,7 @@
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
@@ -1061,7 +1009,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1073,10 +1021,10 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1112,251 +1060,86 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Milliers" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Titre" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1442,6 +1225,30 @@
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1607,15 +1414,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="totalRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
-      <tableStyleElement type="lastColumn" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="lastColumn" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1970,26 +1777,26 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL35"/>
+  <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.625" customWidth="1"/>
+    <col min="9" max="65" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14"/>
       <c r="B1" s="105" t="s">
         <v>0</v>
@@ -1999,60 +1806,60 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="111">
+      <c r="Q1" s="122">
         <f ca="1">TODAY()-17</f>
         <v>45554</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="110">
+      <c r="Q2" s="120">
         <v>1</v>
       </c>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-    </row>
-    <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+    </row>
+    <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="25" t="s">
         <v>3</v>
@@ -2060,106 +1867,106 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="I4" s="108">
+      <c r="I4" s="127">
         <f ca="1">I5</f>
         <v>45551</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106">
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125">
         <f ca="1">P5</f>
         <v>45558</v>
       </c>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106">
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125">
         <f ca="1">W5</f>
         <v>45565</v>
       </c>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106">
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125">
         <f ca="1">AD5</f>
         <v>45572</v>
       </c>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106">
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125">
         <f ca="1">AK5</f>
         <v>45579</v>
       </c>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106">
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125">
         <f ca="1">AR5</f>
         <v>45586</v>
       </c>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106">
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="125">
         <f ca="1">AY5</f>
         <v>45593</v>
       </c>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106">
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="125"/>
+      <c r="BB4" s="125"/>
+      <c r="BC4" s="125"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125">
         <f ca="1">BF5</f>
         <v>45600</v>
       </c>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="107"/>
-    </row>
-    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114" t="s">
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="125"/>
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="125"/>
+      <c r="BK4" s="125"/>
+      <c r="BL4" s="126"/>
+    </row>
+    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="114"/>
+      <c r="B5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="119" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="31">
@@ -2387,239 +2194,239 @@
         <v>45606</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
+    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="J6" s="35" t="str">
         <f ca="1">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="K6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="L6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="M6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="N6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="O6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="P6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="Q6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="R6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="S6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="T6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="U6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="V6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="W6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="X6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="Z6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AA6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="AB6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AC6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AD6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="AE6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="AG6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AH6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="AI6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AJ6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AK6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="AL6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="AN6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AO6" s="35" t="str">
         <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="AP6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AQ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AR6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="AS6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="AU6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AV6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="AW6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AX6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AY6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="AZ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="BB6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BC6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="BD6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BE6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BF6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>M</v>
       </c>
       <c r="BG6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>W</v>
       </c>
       <c r="BI6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BJ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>F</v>
       </c>
       <c r="BK6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BL6" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2436,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="H7" s="26" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="39"/>
@@ -2689,10 +2496,10 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="40" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -2700,7 +2507,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H30" ca="1" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H31" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2760,13 +2567,13 @@
       <c r="BK8" s="45"/>
       <c r="BL8" s="45"/>
     </row>
-    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>12</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -2803,8 +2610,8 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="51"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
       <c r="AD9" s="51"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="51"/>
@@ -2841,13 +2648,13 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="54">
         <v>1</v>
@@ -2922,26 +2729,26 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="121">
+      <c r="D11" s="110">
         <v>1</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="111">
         <v>45567</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="112">
         <v>45572</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I11" s="51"/>
@@ -2960,15 +2767,15 @@
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="Y11" s="128"/>
       <c r="Z11" s="51"/>
       <c r="AA11" s="51"/>
       <c r="AB11" s="51"/>
       <c r="AC11" s="51"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
       <c r="AH11" s="51"/>
       <c r="AI11" s="51"/>
       <c r="AJ11" s="51"/>
@@ -3001,28 +2808,23 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="121">
+      <c r="B12" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="110">
         <v>1</v>
       </c>
-      <c r="E12" s="122">
-        <v>45562</v>
-      </c>
-      <c r="F12" s="123">
-        <v>45568</v>
-      </c>
+      <c r="E12" s="111">
+        <v>45559</v>
+      </c>
+      <c r="F12" s="112"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
@@ -3034,7 +2836,7 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
-      <c r="T12" s="117"/>
+      <c r="T12" s="51"/>
       <c r="U12" s="51"/>
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
@@ -3044,10 +2846,10 @@
       <c r="AA12" s="51"/>
       <c r="AB12" s="51"/>
       <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
       <c r="AH12" s="51"/>
       <c r="AI12" s="51"/>
       <c r="AJ12" s="51"/>
@@ -3080,19 +2882,27 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="110">
+        <v>1</v>
+      </c>
+      <c r="E13" s="111">
+        <v>45562</v>
+      </c>
+      <c r="F13" s="112">
+        <v>45568</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="H13" s="5">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -3105,9 +2915,9 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
@@ -3151,29 +2961,19 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="65" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="65" t="e">
-        <f>E14+4</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B14" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -3187,8 +2987,8 @@
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
       <c r="Y14" s="51"/>
@@ -3232,29 +3032,17 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="65" t="e">
-        <f>E14+2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="65" t="e">
-        <f>E15+5</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3272,7 +3060,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
-      <c r="Y15" s="56"/>
+      <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
       <c r="AA15" s="51"/>
       <c r="AB15" s="51"/>
@@ -3313,29 +3101,17 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="65" t="e">
-        <f>F15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="65" t="e">
-        <f>E16+3</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -3353,7 +3129,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
+      <c r="Y16" s="56"/>
       <c r="Z16" s="51"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="51"/>
@@ -3394,176 +3170,154 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="65" t="e">
-        <f>E16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="65" t="e">
-        <f>E17+2</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-    </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+    </row>
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>28</v>
-      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="64"/>
-      <c r="E18" s="65" t="e">
-        <f>E17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="65" t="e">
-        <f>E18+3</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-    </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="71"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="71"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="71"/>
+      <c r="BG18" s="71"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="71"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
+      <c r="BL18" s="71"/>
+    </row>
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="17"/>
       <c r="H19" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I19" s="51"/>
@@ -3623,29 +3377,19 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="75">
-        <f ca="1">E9+15</f>
-        <v>45569</v>
-      </c>
-      <c r="F20" s="75">
-        <f ca="1">E20+5</f>
-        <v>45574</v>
-      </c>
+      <c r="B20" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
@@ -3704,29 +3448,17 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="75">
-        <f ca="1">F20+1</f>
-        <v>45575</v>
-      </c>
-      <c r="F21" s="75">
-        <f ca="1">E21+4</f>
-        <v>45579</v>
-      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3785,29 +3517,17 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="75">
-        <f ca="1">E21+5</f>
-        <v>45580</v>
-      </c>
-      <c r="F22" s="75">
-        <f ca="1">E22+5</f>
-        <v>45585</v>
-      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -3866,180 +3586,154 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="75">
-        <f ca="1">F22+1</f>
-        <v>45586</v>
-      </c>
-      <c r="F23" s="75">
-        <f ca="1">E23+4</f>
-        <v>45590</v>
-      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="81"/>
-      <c r="BI23" s="81"/>
-      <c r="BJ23" s="81"/>
-      <c r="BK23" s="81"/>
-      <c r="BL23" s="81"/>
-    </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+    </row>
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="75">
-        <f ca="1">E22</f>
-        <v>45580</v>
-      </c>
-      <c r="F24" s="75">
-        <f ca="1">E24+4</f>
-        <v>45584</v>
-      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="51"/>
-      <c r="BC24" s="51"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="51"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-    </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="81"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="81"/>
+      <c r="AT24" s="81"/>
+      <c r="AU24" s="81"/>
+      <c r="AV24" s="81"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="81"/>
+      <c r="BA24" s="81"/>
+      <c r="BB24" s="81"/>
+      <c r="BC24" s="81"/>
+      <c r="BD24" s="81"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="81"/>
+      <c r="BG24" s="81"/>
+      <c r="BH24" s="81"/>
+      <c r="BI24" s="81"/>
+      <c r="BJ24" s="81"/>
+      <c r="BK24" s="81"/>
+      <c r="BL24" s="81"/>
+    </row>
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I25" s="51"/>
@@ -4099,29 +3793,17 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="85">
-        <f ca="1">E20+2</f>
-        <v>45571</v>
-      </c>
-      <c r="F26" s="85">
-        <f ca="1">E26+3</f>
-        <v>45574</v>
-      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
@@ -4180,29 +3862,17 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="85">
-        <f ca="1">F26</f>
-        <v>45574</v>
-      </c>
-      <c r="F27" s="85">
-        <f ca="1">E27+4</f>
-        <v>45578</v>
-      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
@@ -4261,29 +3931,17 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="85">
-        <f ca="1">F27+1</f>
-        <v>45579</v>
-      </c>
-      <c r="F28" s="85">
-        <f ca="1">E28+3</f>
-        <v>45582</v>
-      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -4342,204 +4000,239 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="84">
-        <v>0.6</v>
-      </c>
-      <c r="E29" s="85">
-        <f ca="1">E26+5</f>
-        <v>45576</v>
-      </c>
-      <c r="F29" s="85">
-        <f ca="1">E29+3</f>
-        <v>45579</v>
-      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
-      <c r="BD29" s="45"/>
-      <c r="BE29" s="45"/>
-      <c r="BF29" s="45"/>
-      <c r="BG29" s="45"/>
-      <c r="BH29" s="45"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="45"/>
-      <c r="BK29" s="45"/>
-      <c r="BL29" s="45"/>
-    </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="85">
-        <f ca="1">E26+7</f>
-        <v>45578</v>
-      </c>
-      <c r="F30" s="85">
-        <f ca="1">E30+5</f>
-        <v>45583</v>
-      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="51"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="51"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+    </row>
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-    </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1">
-      <c r="B32" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-    </row>
-    <row r="34" spans="3:6" ht="30" customHeight="1">
-      <c r="C34" s="16"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="3:6" ht="30" customHeight="1">
-      <c r="C35" s="4"/>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="45"/>
+      <c r="BL30" s="45"/>
+    </row>
+    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="95"/>
+      <c r="AO31" s="95"/>
+      <c r="AP31" s="95"/>
+      <c r="AQ31" s="95"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+    </row>
+    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+    </row>
+    <row r="35" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="16"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4548,8 +4241,18 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D32">
+  <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4563,105 +4266,57 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL28">
-    <cfRule type="expression" dxfId="24" priority="17">
+  <conditionalFormatting sqref="I4:BL29">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL10">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="21" priority="20">
+  <conditionalFormatting sqref="I11:BL12">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL22">
-    <cfRule type="expression" dxfId="19" priority="18">
+  <conditionalFormatting sqref="I13:BL17">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="21" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL28">
-    <cfRule type="expression" dxfId="17" priority="52">
+  <conditionalFormatting sqref="I19:BL23">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:T14">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:P11">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="I25:BL29">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:X11">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
+  <conditionalFormatting sqref="K15:T15">
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:AF11">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11:AN11">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO11:AV11">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW11:BD11">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE11:BL11">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=BE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BE$5,task_start&lt;BF$5)</formula>
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -4676,10 +4331,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A11" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A17" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A23" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A30" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A11:A12" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A18" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A24" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A31" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4687,9 +4342,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F17 F21:F22 E22 F27" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4706,7 +4358,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D32</xm:sqref>
+          <xm:sqref>D7:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4720,110 +4372,110 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.95">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="99"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="30.95">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.35" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="102" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="30.95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="101" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.35" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="30.95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
       <c r="A11" s="100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.35" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="103" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="30.95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
       <c r="A14" s="100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="104"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="104"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="104"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="104"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="104"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="104"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="104"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="104"/>
     </row>
   </sheetData>
@@ -4848,26 +4500,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5179,16 +4811,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
